--- a/VersionRecords/Version 5.0.3.2 20161013/版本Bug和特性计划及评审表v5.0.3.2.xlsx
+++ b/VersionRecords/Version 5.0.3.2 20161013/版本Bug和特性计划及评审表v5.0.3.2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.3.2 20161013\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27345" windowHeight="13365"/>
   </bookViews>
@@ -616,8 +621,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1228,74 +1233,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1315,7 +1252,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1635,17 +1572,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="25" customWidth="1"/>
     <col min="2" max="2" width="52.875" style="26" customWidth="1"/>
@@ -1670,7 +1607,7 @@
     <col min="21" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="19" customFormat="1" ht="27">
+    <row r="1" spans="1:20" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="81" customFormat="1" ht="21.75" customHeight="1">
+    <row r="2" spans="1:20" s="81" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="73">
         <v>1</v>
       </c>
@@ -1779,7 +1716,7 @@
       <c r="S2" s="79"/>
       <c r="T2" s="80"/>
     </row>
-    <row r="3" spans="1:20" s="81" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:20" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="73">
         <v>2</v>
       </c>
@@ -1795,11 +1732,15 @@
       <c r="E3" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="76"/>
+      <c r="F3" s="76">
+        <v>42656</v>
+      </c>
       <c r="G3" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="76"/>
+      <c r="H3" s="76">
+        <v>42656</v>
+      </c>
       <c r="I3" s="75"/>
       <c r="J3" s="77" t="s">
         <v>92</v>
@@ -1827,7 +1768,7 @@
       </c>
       <c r="T3" s="80"/>
     </row>
-    <row r="4" spans="1:20" s="81" customFormat="1" ht="16.5">
+    <row r="4" spans="1:20" s="81" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="73">
         <v>3</v>
       </c>
@@ -1843,11 +1784,15 @@
       <c r="E4" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="76"/>
+      <c r="F4" s="76">
+        <v>42656</v>
+      </c>
       <c r="G4" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="76"/>
+      <c r="H4" s="76">
+        <v>42656</v>
+      </c>
       <c r="I4" s="75"/>
       <c r="J4" s="77" t="s">
         <v>109</v>
@@ -1873,7 +1818,7 @@
       <c r="S4" s="79"/>
       <c r="T4" s="80"/>
     </row>
-    <row r="5" spans="1:20" s="81" customFormat="1" ht="27" customHeight="1">
+    <row r="5" spans="1:20" s="81" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="73">
         <v>4</v>
       </c>
@@ -1925,7 +1870,7 @@
       </c>
       <c r="T5" s="80"/>
     </row>
-    <row r="6" spans="1:20" s="81" customFormat="1" ht="16.5">
+    <row r="6" spans="1:20" s="81" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="73">
         <v>5</v>
       </c>
@@ -1975,7 +1920,7 @@
       <c r="S6" s="79"/>
       <c r="T6" s="80"/>
     </row>
-    <row r="7" spans="1:20" s="81" customFormat="1" ht="16.5">
+    <row r="7" spans="1:20" s="81" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="73">
         <v>6</v>
       </c>
@@ -2019,7 +1964,7 @@
       <c r="S7" s="79"/>
       <c r="T7" s="80"/>
     </row>
-    <row r="8" spans="1:20" s="81" customFormat="1" ht="21.75" customHeight="1">
+    <row r="8" spans="1:20" s="81" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="73">
         <v>7</v>
       </c>
@@ -2069,7 +2014,7 @@
       </c>
       <c r="T8" s="80"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5">
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="32"/>
       <c r="C9" s="31"/>
@@ -2090,7 +2035,7 @@
       <c r="R9" s="52"/>
       <c r="S9" s="62"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5">
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
       <c r="B10" s="32"/>
       <c r="C10" s="31"/>
@@ -2111,7 +2056,7 @@
       <c r="R10" s="52"/>
       <c r="S10" s="62"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
       <c r="B11" s="32"/>
       <c r="C11" s="31"/>
@@ -2132,7 +2077,7 @@
       <c r="R11" s="52"/>
       <c r="S11" s="62"/>
     </row>
-    <row r="12" spans="1:20" ht="16.5">
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
       <c r="B12" s="32"/>
       <c r="C12" s="31"/>
@@ -2153,7 +2098,7 @@
       <c r="R12" s="52"/>
       <c r="S12" s="62"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5">
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="32"/>
       <c r="C13" s="31"/>
@@ -2174,7 +2119,7 @@
       <c r="R13" s="52"/>
       <c r="S13" s="62"/>
     </row>
-    <row r="14" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="14" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
       <c r="B14" s="33"/>
       <c r="C14" s="31"/>
@@ -2196,7 +2141,7 @@
       <c r="S14" s="60"/>
       <c r="T14" s="61"/>
     </row>
-    <row r="15" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="15" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
       <c r="B15" s="33"/>
       <c r="C15" s="31"/>
@@ -2218,7 +2163,7 @@
       <c r="S15" s="60"/>
       <c r="T15" s="61"/>
     </row>
-    <row r="16" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
       <c r="B16" s="33"/>
       <c r="C16" s="31"/>
@@ -2240,7 +2185,7 @@
       <c r="S16" s="60"/>
       <c r="T16" s="61"/>
     </row>
-    <row r="17" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="17" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
       <c r="B17" s="33"/>
       <c r="C17" s="31"/>
@@ -2262,7 +2207,7 @@
       <c r="S17" s="60"/>
       <c r="T17" s="61"/>
     </row>
-    <row r="18" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="18" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
       <c r="B18" s="33"/>
       <c r="C18" s="31"/>
@@ -2284,7 +2229,7 @@
       <c r="S18" s="60"/>
       <c r="T18" s="61"/>
     </row>
-    <row r="19" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="19" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
       <c r="B19" s="33"/>
       <c r="C19" s="31"/>
@@ -2306,7 +2251,7 @@
       <c r="S19" s="60"/>
       <c r="T19" s="61"/>
     </row>
-    <row r="20" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
       <c r="B20" s="33"/>
       <c r="C20" s="31"/>
@@ -2328,7 +2273,7 @@
       <c r="S20" s="63"/>
       <c r="T20" s="61"/>
     </row>
-    <row r="21" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
       <c r="B21" s="33"/>
       <c r="C21" s="31"/>
@@ -2350,7 +2295,7 @@
       <c r="S21" s="60"/>
       <c r="T21" s="61"/>
     </row>
-    <row r="22" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="22" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
       <c r="B22" s="33"/>
       <c r="C22" s="31"/>
@@ -2372,7 +2317,7 @@
       <c r="S22" s="60"/>
       <c r="T22" s="61"/>
     </row>
-    <row r="23" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="23" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
       <c r="B23" s="33"/>
       <c r="C23" s="31"/>
@@ -2394,7 +2339,7 @@
       <c r="S23" s="60"/>
       <c r="T23" s="61"/>
     </row>
-    <row r="24" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="24" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
       <c r="B24" s="33"/>
       <c r="C24" s="31"/>
@@ -2416,7 +2361,7 @@
       <c r="S24" s="60"/>
       <c r="T24" s="61"/>
     </row>
-    <row r="25" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="25" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
       <c r="B25" s="33"/>
       <c r="C25" s="31"/>
@@ -2438,7 +2383,7 @@
       <c r="S25" s="60"/>
       <c r="T25" s="61"/>
     </row>
-    <row r="26" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="26" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="33"/>
       <c r="C26" s="31"/>
@@ -2460,7 +2405,7 @@
       <c r="S26" s="60"/>
       <c r="T26" s="61"/>
     </row>
-    <row r="27" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="27" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="33"/>
       <c r="C27" s="31"/>
@@ -2482,7 +2427,7 @@
       <c r="S27" s="60"/>
       <c r="T27" s="61"/>
     </row>
-    <row r="28" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="28" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="33"/>
       <c r="C28" s="31"/>
@@ -2504,7 +2449,7 @@
       <c r="S28" s="60"/>
       <c r="T28" s="61"/>
     </row>
-    <row r="29" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="29" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="34"/>
       <c r="C29" s="31"/>
@@ -2526,7 +2471,7 @@
       <c r="S29" s="50"/>
       <c r="T29" s="64"/>
     </row>
-    <row r="30" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="30" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="34"/>
       <c r="C30" s="31"/>
@@ -2548,7 +2493,7 @@
       <c r="S30" s="60"/>
       <c r="T30" s="61"/>
     </row>
-    <row r="31" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="31" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="34"/>
       <c r="C31" s="31"/>
@@ -2570,7 +2515,7 @@
       <c r="S31" s="60"/>
       <c r="T31" s="61"/>
     </row>
-    <row r="32" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="32" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="34"/>
       <c r="C32" s="31"/>
@@ -2592,7 +2537,7 @@
       <c r="S32" s="60"/>
       <c r="T32" s="61"/>
     </row>
-    <row r="33" spans="1:20" s="20" customFormat="1" ht="17.25" customHeight="1">
+    <row r="33" spans="1:20" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="34"/>
       <c r="C33" s="31"/>
@@ -2614,7 +2559,7 @@
       <c r="S33" s="60"/>
       <c r="T33" s="61"/>
     </row>
-    <row r="34" spans="1:20" s="22" customFormat="1" ht="16.5">
+    <row r="34" spans="1:20" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="34"/>
       <c r="C34" s="31"/>
@@ -2636,7 +2581,7 @@
       <c r="S34" s="65"/>
       <c r="T34" s="66"/>
     </row>
-    <row r="35" spans="1:20" s="22" customFormat="1" ht="16.5">
+    <row r="35" spans="1:20" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="34"/>
       <c r="C35" s="31"/>
@@ -2658,7 +2603,7 @@
       <c r="S35" s="65"/>
       <c r="T35" s="66"/>
     </row>
-    <row r="36" spans="1:20" s="23" customFormat="1" ht="25.5" customHeight="1">
+    <row r="36" spans="1:20" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
       <c r="B36" s="36"/>
       <c r="C36" s="37"/>
@@ -2680,7 +2625,7 @@
       <c r="S36" s="67"/>
       <c r="T36" s="68"/>
     </row>
-    <row r="37" spans="1:20" s="23" customFormat="1" ht="25.5" customHeight="1">
+    <row r="37" spans="1:20" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="30"/>
       <c r="B37" s="36"/>
       <c r="C37" s="37"/>
@@ -2702,7 +2647,7 @@
       <c r="S37" s="67"/>
       <c r="T37" s="68"/>
     </row>
-    <row r="38" spans="1:20" s="24" customFormat="1" ht="25.5" customHeight="1">
+    <row r="38" spans="1:20" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="30"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
@@ -2724,7 +2669,7 @@
       <c r="S38" s="69"/>
       <c r="T38" s="70"/>
     </row>
-    <row r="39" spans="1:20" s="24" customFormat="1" ht="25.5" customHeight="1">
+    <row r="39" spans="1:20" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
@@ -2746,7 +2691,7 @@
       <c r="S39" s="69"/>
       <c r="T39" s="70"/>
     </row>
-    <row r="40" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="40" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
       <c r="B40" s="33"/>
       <c r="C40" s="31"/>
@@ -2768,7 +2713,7 @@
       <c r="S40" s="60"/>
       <c r="T40" s="61"/>
     </row>
-    <row r="41" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="41" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="33"/>
       <c r="C41" s="31"/>
@@ -2790,7 +2735,7 @@
       <c r="S41" s="60"/>
       <c r="T41" s="61"/>
     </row>
-    <row r="42" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="42" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="33"/>
       <c r="C42" s="31"/>
@@ -2812,7 +2757,7 @@
       <c r="S42" s="60"/>
       <c r="T42" s="61"/>
     </row>
-    <row r="43" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="43" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="33"/>
       <c r="C43" s="31"/>
@@ -2834,7 +2779,7 @@
       <c r="S43" s="60"/>
       <c r="T43" s="61"/>
     </row>
-    <row r="44" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="44" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="33"/>
       <c r="C44" s="31"/>
@@ -2856,7 +2801,7 @@
       <c r="S44" s="60"/>
       <c r="T44" s="61"/>
     </row>
-    <row r="45" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="45" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="33"/>
       <c r="C45" s="31"/>
@@ -2878,7 +2823,7 @@
       <c r="S45" s="60"/>
       <c r="T45" s="61"/>
     </row>
-    <row r="46" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="46" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="33"/>
       <c r="C46" s="39"/>
@@ -2900,7 +2845,7 @@
       <c r="S46" s="60"/>
       <c r="T46" s="61"/>
     </row>
-    <row r="47" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="47" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="30"/>
       <c r="B47" s="36"/>
       <c r="C47" s="31"/>
@@ -2922,7 +2867,7 @@
       <c r="S47" s="63"/>
       <c r="T47" s="64"/>
     </row>
-    <row r="48" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="48" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="30"/>
       <c r="B48" s="33"/>
       <c r="C48" s="31"/>
@@ -2944,7 +2889,7 @@
       <c r="S48" s="63"/>
       <c r="T48" s="61"/>
     </row>
-    <row r="49" spans="1:20" s="21" customFormat="1" ht="22.5" customHeight="1">
+    <row r="49" spans="1:20" s="21" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="30"/>
       <c r="B49" s="36"/>
       <c r="C49" s="31"/>
@@ -2966,7 +2911,7 @@
       <c r="S49" s="63"/>
       <c r="T49" s="64"/>
     </row>
-    <row r="50" spans="1:20" s="20" customFormat="1" ht="22.5" customHeight="1">
+    <row r="50" spans="1:20" s="20" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="30"/>
       <c r="B50" s="33"/>
       <c r="C50" s="31"/>
@@ -2988,7 +2933,7 @@
       <c r="S50" s="63"/>
       <c r="T50" s="61"/>
     </row>
-    <row r="51" spans="1:20" s="20" customFormat="1" ht="22.5" customHeight="1">
+    <row r="51" spans="1:20" s="20" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="30"/>
       <c r="B51" s="33"/>
       <c r="C51" s="31"/>
@@ -3010,7 +2955,7 @@
       <c r="S51" s="60"/>
       <c r="T51" s="61"/>
     </row>
-    <row r="52" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="52" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="30"/>
       <c r="B52" s="40"/>
       <c r="C52" s="31"/>
@@ -3032,7 +2977,7 @@
       <c r="S52" s="60"/>
       <c r="T52" s="61"/>
     </row>
-    <row r="53" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="53" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="30"/>
       <c r="B53" s="41"/>
       <c r="C53" s="31"/>
@@ -3054,7 +2999,7 @@
       <c r="S53" s="60"/>
       <c r="T53" s="61"/>
     </row>
-    <row r="54" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="54" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="30"/>
       <c r="B54" s="41"/>
       <c r="C54" s="31"/>
@@ -3076,7 +3021,7 @@
       <c r="S54" s="60"/>
       <c r="T54" s="61"/>
     </row>
-    <row r="55" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="55" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="30"/>
       <c r="B55" s="41"/>
       <c r="C55" s="31"/>
@@ -3098,7 +3043,7 @@
       <c r="S55" s="60"/>
       <c r="T55" s="61"/>
     </row>
-    <row r="56" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="56" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="30"/>
       <c r="B56" s="42"/>
       <c r="C56" s="31"/>
@@ -3120,7 +3065,7 @@
       <c r="S56" s="60"/>
       <c r="T56" s="61"/>
     </row>
-    <row r="57" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="57" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="30"/>
       <c r="B57" s="43"/>
       <c r="C57" s="31"/>
@@ -3142,7 +3087,7 @@
       <c r="S57" s="60"/>
       <c r="T57" s="61"/>
     </row>
-    <row r="58" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="58" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="30"/>
       <c r="B58" s="44"/>
       <c r="C58" s="31"/>
@@ -3164,7 +3109,7 @@
       <c r="S58" s="60"/>
       <c r="T58" s="61"/>
     </row>
-    <row r="59" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="59" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="30"/>
       <c r="B59" s="45"/>
       <c r="C59" s="31"/>
@@ -3186,7 +3131,7 @@
       <c r="S59" s="60"/>
       <c r="T59" s="61"/>
     </row>
-    <row r="60" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="60" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="30"/>
       <c r="B60" s="45"/>
       <c r="C60" s="31"/>
@@ -3208,7 +3153,7 @@
       <c r="S60" s="60"/>
       <c r="T60" s="61"/>
     </row>
-    <row r="61" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="61" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="30"/>
       <c r="B61" s="46"/>
       <c r="C61" s="31"/>
@@ -3230,7 +3175,7 @@
       <c r="S61" s="60"/>
       <c r="T61" s="61"/>
     </row>
-    <row r="62" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="62" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="30"/>
       <c r="B62" s="44"/>
       <c r="C62" s="31"/>
@@ -3252,7 +3197,7 @@
       <c r="S62" s="60"/>
       <c r="T62" s="61"/>
     </row>
-    <row r="63" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="63" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="30"/>
       <c r="B63" s="47"/>
       <c r="C63" s="31"/>
@@ -3274,7 +3219,7 @@
       <c r="S63" s="60"/>
       <c r="T63" s="61"/>
     </row>
-    <row r="64" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="64" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="30"/>
       <c r="B64" s="46"/>
       <c r="C64" s="31"/>
@@ -3296,7 +3241,7 @@
       <c r="S64" s="60"/>
       <c r="T64" s="61"/>
     </row>
-    <row r="65" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="65" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="30"/>
       <c r="B65" s="44"/>
       <c r="C65" s="31"/>
@@ -3318,7 +3263,7 @@
       <c r="S65" s="60"/>
       <c r="T65" s="61"/>
     </row>
-    <row r="66" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="66" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="30"/>
       <c r="B66" s="44"/>
       <c r="C66" s="31"/>
@@ -3340,7 +3285,7 @@
       <c r="S66" s="60"/>
       <c r="T66" s="61"/>
     </row>
-    <row r="67" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="67" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="30"/>
       <c r="B67" s="44"/>
       <c r="C67" s="31"/>
@@ -3362,7 +3307,7 @@
       <c r="S67" s="60"/>
       <c r="T67" s="61"/>
     </row>
-    <row r="68" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="68" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="30"/>
       <c r="B68" s="44"/>
       <c r="C68" s="31"/>
@@ -3384,7 +3329,7 @@
       <c r="S68" s="60"/>
       <c r="T68" s="61"/>
     </row>
-    <row r="69" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="69" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="30"/>
       <c r="B69" s="44"/>
       <c r="C69" s="31"/>
@@ -3406,7 +3351,7 @@
       <c r="S69" s="60"/>
       <c r="T69" s="61"/>
     </row>
-    <row r="70" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="70" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="30"/>
       <c r="B70" s="44"/>
       <c r="C70" s="31"/>
@@ -3428,7 +3373,7 @@
       <c r="S70" s="60"/>
       <c r="T70" s="61"/>
     </row>
-    <row r="71" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="71" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="30"/>
       <c r="B71" s="44"/>
       <c r="C71" s="31"/>
@@ -3450,7 +3395,7 @@
       <c r="S71" s="60"/>
       <c r="T71" s="61"/>
     </row>
-    <row r="72" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="72" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="30"/>
       <c r="B72" s="44"/>
       <c r="C72" s="31"/>
@@ -3472,7 +3417,7 @@
       <c r="S72" s="60"/>
       <c r="T72" s="61"/>
     </row>
-    <row r="73" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="73" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="30"/>
       <c r="B73" s="44"/>
       <c r="C73" s="31"/>
@@ -3494,7 +3439,7 @@
       <c r="S73" s="60"/>
       <c r="T73" s="61"/>
     </row>
-    <row r="74" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="74" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="30"/>
       <c r="B74" s="44"/>
       <c r="C74" s="31"/>
@@ -3516,7 +3461,7 @@
       <c r="S74" s="60"/>
       <c r="T74" s="61"/>
     </row>
-    <row r="75" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="75" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="30"/>
       <c r="B75" s="44"/>
       <c r="C75" s="31"/>
@@ -3538,7 +3483,7 @@
       <c r="S75" s="60"/>
       <c r="T75" s="61"/>
     </row>
-    <row r="76" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="76" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="30"/>
       <c r="B76" s="44"/>
       <c r="C76" s="31"/>
@@ -3560,7 +3505,7 @@
       <c r="S76" s="60"/>
       <c r="T76" s="61"/>
     </row>
-    <row r="77" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="77" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="30"/>
       <c r="B77" s="44"/>
       <c r="C77" s="31"/>
@@ -3582,7 +3527,7 @@
       <c r="S77" s="60"/>
       <c r="T77" s="61"/>
     </row>
-    <row r="78" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="78" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="30"/>
       <c r="B78" s="44"/>
       <c r="C78" s="31"/>
@@ -3604,7 +3549,7 @@
       <c r="S78" s="60"/>
       <c r="T78" s="61"/>
     </row>
-    <row r="79" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="79" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="30"/>
       <c r="B79" s="44"/>
       <c r="C79" s="31"/>
@@ -3626,7 +3571,7 @@
       <c r="S79" s="60"/>
       <c r="T79" s="61"/>
     </row>
-    <row r="80" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="80" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="30"/>
       <c r="B80" s="44"/>
       <c r="C80" s="31"/>
@@ -3648,7 +3593,7 @@
       <c r="S80" s="60"/>
       <c r="T80" s="61"/>
     </row>
-    <row r="81" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="81" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="30"/>
       <c r="B81" s="44"/>
       <c r="C81" s="31"/>
@@ -3670,7 +3615,7 @@
       <c r="S81" s="60"/>
       <c r="T81" s="61"/>
     </row>
-    <row r="82" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="82" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="30"/>
       <c r="B82" s="44"/>
       <c r="C82" s="31"/>
@@ -3692,7 +3637,7 @@
       <c r="S82" s="60"/>
       <c r="T82" s="61"/>
     </row>
-    <row r="83" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="83" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="30"/>
       <c r="B83" s="44"/>
       <c r="C83" s="31"/>
@@ -3714,7 +3659,7 @@
       <c r="S83" s="60"/>
       <c r="T83" s="61"/>
     </row>
-    <row r="84" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="84" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="30"/>
       <c r="B84" s="44"/>
       <c r="C84" s="31"/>
@@ -3736,7 +3681,7 @@
       <c r="S84" s="60"/>
       <c r="T84" s="61"/>
     </row>
-    <row r="85" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="85" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="30"/>
       <c r="B85" s="44"/>
       <c r="C85" s="31"/>
@@ -3758,7 +3703,7 @@
       <c r="S85" s="60"/>
       <c r="T85" s="61"/>
     </row>
-    <row r="86" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="86" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="30"/>
       <c r="B86" s="44"/>
       <c r="C86" s="31"/>
@@ -3780,7 +3725,7 @@
       <c r="S86" s="60"/>
       <c r="T86" s="61"/>
     </row>
-    <row r="87" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="87" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="30"/>
       <c r="B87" s="44"/>
       <c r="C87" s="31"/>
@@ -3802,7 +3747,7 @@
       <c r="S87" s="60"/>
       <c r="T87" s="61"/>
     </row>
-    <row r="88" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="88" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="30"/>
       <c r="B88" s="44"/>
       <c r="C88" s="31"/>
@@ -3824,7 +3769,7 @@
       <c r="S88" s="60"/>
       <c r="T88" s="61"/>
     </row>
-    <row r="89" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="89" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="30"/>
       <c r="B89" s="44"/>
       <c r="C89" s="31"/>
@@ -3846,7 +3791,7 @@
       <c r="S89" s="60"/>
       <c r="T89" s="61"/>
     </row>
-    <row r="90" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="90" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="30"/>
       <c r="B90" s="44"/>
       <c r="C90" s="31"/>
@@ -3868,7 +3813,7 @@
       <c r="S90" s="60"/>
       <c r="T90" s="61"/>
     </row>
-    <row r="91" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="91" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="30"/>
       <c r="B91" s="44"/>
       <c r="C91" s="31"/>
@@ -3890,7 +3835,7 @@
       <c r="S91" s="60"/>
       <c r="T91" s="61"/>
     </row>
-    <row r="92" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="92" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="30"/>
       <c r="B92" s="44"/>
       <c r="C92" s="31"/>
@@ -3912,7 +3857,7 @@
       <c r="S92" s="60"/>
       <c r="T92" s="61"/>
     </row>
-    <row r="93" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="93" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="30"/>
       <c r="B93" s="44"/>
       <c r="C93" s="31"/>
@@ -3934,7 +3879,7 @@
       <c r="S93" s="60"/>
       <c r="T93" s="61"/>
     </row>
-    <row r="94" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="94" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="30"/>
       <c r="B94" s="44"/>
       <c r="C94" s="31"/>
@@ -3956,7 +3901,7 @@
       <c r="S94" s="60"/>
       <c r="T94" s="61"/>
     </row>
-    <row r="95" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="95" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="30"/>
       <c r="B95" s="44"/>
       <c r="C95" s="31"/>
@@ -3978,7 +3923,7 @@
       <c r="S95" s="60"/>
       <c r="T95" s="61"/>
     </row>
-    <row r="96" spans="1:20" s="20" customFormat="1" ht="16.5">
+    <row r="96" spans="1:20" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="30"/>
       <c r="B96" s="33"/>
       <c r="C96" s="31"/>
@@ -4000,7 +3945,7 @@
       <c r="S96" s="60"/>
       <c r="T96" s="61"/>
     </row>
-    <row r="97" spans="1:20" s="21" customFormat="1" ht="27" customHeight="1">
+    <row r="97" spans="1:20" s="21" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="30"/>
       <c r="B97" s="36"/>
       <c r="C97" s="31"/>
@@ -4022,7 +3967,7 @@
       <c r="S97" s="63"/>
       <c r="T97" s="64"/>
     </row>
-    <row r="98" spans="1:20" s="20" customFormat="1" ht="27" customHeight="1">
+    <row r="98" spans="1:20" s="20" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="30"/>
       <c r="B98" s="33"/>
       <c r="C98" s="31"/>
@@ -4044,7 +3989,7 @@
       <c r="S98" s="63"/>
       <c r="T98" s="61"/>
     </row>
-    <row r="99" spans="1:20" s="20" customFormat="1" ht="27" customHeight="1">
+    <row r="99" spans="1:20" s="20" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="30"/>
       <c r="B99" s="33"/>
       <c r="C99" s="31"/>
@@ -4066,7 +4011,7 @@
       <c r="S99" s="60"/>
       <c r="T99" s="61"/>
     </row>
-    <row r="100" spans="1:20" s="20" customFormat="1" ht="27" customHeight="1">
+    <row r="100" spans="1:20" s="20" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="30"/>
       <c r="B100" s="33"/>
       <c r="C100" s="31"/>
@@ -4088,7 +4033,7 @@
       <c r="S100" s="60"/>
       <c r="T100" s="61"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A101" s="52"/>
       <c r="B101" s="62"/>
       <c r="C101" s="52"/>
@@ -4109,7 +4054,7 @@
       <c r="R101" s="52"/>
       <c r="S101" s="62"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A102" s="52"/>
       <c r="B102" s="62"/>
       <c r="C102" s="52"/>
@@ -4130,7 +4075,7 @@
       <c r="R102" s="52"/>
       <c r="S102" s="62"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103" s="52"/>
       <c r="B103" s="62"/>
       <c r="C103" s="52"/>
@@ -4151,7 +4096,7 @@
       <c r="R103" s="52"/>
       <c r="S103" s="62"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A104" s="52"/>
       <c r="B104" s="62"/>
       <c r="C104" s="52"/>
@@ -4172,7 +4117,7 @@
       <c r="R104" s="52"/>
       <c r="S104" s="62"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A105" s="52"/>
       <c r="B105" s="62"/>
       <c r="C105" s="52"/>
@@ -4193,7 +4138,7 @@
       <c r="R105" s="52"/>
       <c r="S105" s="62"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106" s="52"/>
       <c r="B106" s="62"/>
       <c r="C106" s="52"/>
@@ -4214,7 +4159,7 @@
       <c r="R106" s="52"/>
       <c r="S106" s="62"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A107" s="52"/>
       <c r="B107" s="62"/>
       <c r="C107" s="52"/>
@@ -4235,7 +4180,7 @@
       <c r="R107" s="52"/>
       <c r="S107" s="62"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A108" s="52"/>
       <c r="B108" s="62"/>
       <c r="C108" s="52"/>
@@ -4256,7 +4201,7 @@
       <c r="R108" s="52"/>
       <c r="S108" s="62"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109" s="52"/>
       <c r="B109" s="62"/>
       <c r="C109" s="52"/>
@@ -4277,7 +4222,7 @@
       <c r="R109" s="52"/>
       <c r="S109" s="62"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A110" s="52"/>
       <c r="B110" s="62"/>
       <c r="C110" s="52"/>
@@ -4298,7 +4243,7 @@
       <c r="R110" s="52"/>
       <c r="S110" s="62"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111" s="52"/>
       <c r="B111" s="62"/>
       <c r="C111" s="52"/>
@@ -4319,7 +4264,7 @@
       <c r="R111" s="52"/>
       <c r="S111" s="62"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A112" s="52"/>
       <c r="B112" s="62"/>
       <c r="C112" s="52"/>
@@ -4340,7 +4285,7 @@
       <c r="R112" s="52"/>
       <c r="S112" s="62"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="52"/>
       <c r="B113" s="62"/>
       <c r="C113" s="52"/>
@@ -4361,7 +4306,7 @@
       <c r="R113" s="52"/>
       <c r="S113" s="62"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="52"/>
       <c r="B114" s="62"/>
       <c r="C114" s="52"/>
@@ -4382,7 +4327,7 @@
       <c r="R114" s="52"/>
       <c r="S114" s="62"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="52"/>
       <c r="B115" s="62"/>
       <c r="C115" s="52"/>
@@ -4403,7 +4348,7 @@
       <c r="R115" s="52"/>
       <c r="S115" s="62"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="52"/>
       <c r="B116" s="62"/>
       <c r="C116" s="52"/>
@@ -4424,7 +4369,7 @@
       <c r="R116" s="52"/>
       <c r="S116" s="62"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="52"/>
       <c r="B117" s="62"/>
       <c r="C117" s="52"/>
@@ -4445,7 +4390,7 @@
       <c r="R117" s="52"/>
       <c r="S117" s="62"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="52"/>
       <c r="B118" s="62"/>
       <c r="C118" s="52"/>
@@ -4466,7 +4411,7 @@
       <c r="R118" s="52"/>
       <c r="S118" s="62"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="52"/>
       <c r="B119" s="62"/>
       <c r="C119" s="52"/>
@@ -4487,7 +4432,7 @@
       <c r="R119" s="52"/>
       <c r="S119" s="62"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="52"/>
       <c r="B120" s="62"/>
       <c r="C120" s="52"/>
@@ -4508,7 +4453,7 @@
       <c r="R120" s="52"/>
       <c r="S120" s="62"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="52"/>
       <c r="B121" s="62"/>
       <c r="C121" s="52"/>
@@ -4529,7 +4474,7 @@
       <c r="R121" s="52"/>
       <c r="S121" s="62"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="52"/>
       <c r="B122" s="62"/>
       <c r="C122" s="52"/>
@@ -4547,7 +4492,7 @@
       <c r="O122" s="62"/>
       <c r="S122" s="62"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="52"/>
       <c r="B123" s="62"/>
       <c r="C123" s="52"/>
@@ -4565,7 +4510,7 @@
       <c r="O123" s="62"/>
       <c r="S123" s="62"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="52"/>
       <c r="B124" s="62"/>
       <c r="C124" s="52"/>
@@ -4583,7 +4528,7 @@
       <c r="O124" s="62"/>
       <c r="S124" s="62"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="52"/>
       <c r="B125" s="62"/>
       <c r="C125" s="52"/>
@@ -4601,7 +4546,7 @@
       <c r="O125" s="62"/>
       <c r="S125" s="62"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="52"/>
       <c r="B126" s="62"/>
       <c r="C126" s="52"/>
@@ -4619,7 +4564,7 @@
       <c r="O126" s="62"/>
       <c r="S126" s="62"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="52"/>
       <c r="B127" s="62"/>
       <c r="C127" s="52"/>
@@ -4637,7 +4582,7 @@
       <c r="O127" s="62"/>
       <c r="S127" s="62"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="52"/>
       <c r="B128" s="62"/>
       <c r="C128" s="52"/>
@@ -4655,7 +4600,7 @@
       <c r="O128" s="62"/>
       <c r="S128" s="62"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="52"/>
       <c r="B129" s="62"/>
       <c r="C129" s="52"/>
@@ -4673,7 +4618,7 @@
       <c r="O129" s="62"/>
       <c r="S129" s="62"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="52"/>
       <c r="B130" s="62"/>
       <c r="C130" s="52"/>
@@ -4691,7 +4636,7 @@
       <c r="O130" s="62"/>
       <c r="S130" s="62"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="52"/>
       <c r="B131" s="62"/>
       <c r="C131" s="52"/>
@@ -4709,7 +4654,7 @@
       <c r="O131" s="62"/>
       <c r="S131" s="62"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="52"/>
       <c r="B132" s="62"/>
       <c r="C132" s="52"/>
@@ -4727,7 +4672,7 @@
       <c r="O132" s="62"/>
       <c r="S132" s="62"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="52"/>
       <c r="B133" s="62"/>
       <c r="C133" s="52"/>
@@ -4745,7 +4690,7 @@
       <c r="O133" s="62"/>
       <c r="S133" s="62"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="52"/>
       <c r="B134" s="62"/>
       <c r="C134" s="52"/>
@@ -4763,7 +4708,7 @@
       <c r="O134" s="62"/>
       <c r="S134" s="62"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="52"/>
       <c r="B135" s="62"/>
       <c r="C135" s="52"/>
@@ -4781,7 +4726,7 @@
       <c r="O135" s="62"/>
       <c r="S135" s="62"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="52"/>
       <c r="B136" s="62"/>
       <c r="C136" s="52"/>
@@ -4799,7 +4744,7 @@
       <c r="O136" s="62"/>
       <c r="S136" s="62"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="52"/>
       <c r="B137" s="62"/>
       <c r="C137" s="52"/>
@@ -4817,7 +4762,7 @@
       <c r="O137" s="62"/>
       <c r="S137" s="62"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="52"/>
       <c r="B138" s="62"/>
       <c r="C138" s="52"/>
@@ -4835,7 +4780,7 @@
       <c r="O138" s="62"/>
       <c r="S138" s="62"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="52"/>
       <c r="B139" s="62"/>
       <c r="C139" s="52"/>
@@ -4853,7 +4798,7 @@
       <c r="O139" s="62"/>
       <c r="S139" s="62"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="52"/>
       <c r="B140" s="62"/>
       <c r="C140" s="52"/>
@@ -4871,7 +4816,7 @@
       <c r="O140" s="62"/>
       <c r="S140" s="62"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="52"/>
       <c r="B141" s="62"/>
       <c r="C141" s="52"/>
@@ -4889,7 +4834,7 @@
       <c r="O141" s="62"/>
       <c r="S141" s="62"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="52"/>
       <c r="B142" s="62"/>
       <c r="C142" s="52"/>
@@ -4907,7 +4852,7 @@
       <c r="O142" s="62"/>
       <c r="S142" s="62"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="52"/>
       <c r="B143" s="62"/>
       <c r="C143" s="52"/>
@@ -4925,7 +4870,7 @@
       <c r="O143" s="62"/>
       <c r="S143" s="62"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="52"/>
       <c r="B144" s="62"/>
       <c r="C144" s="52"/>
@@ -4943,7 +4888,7 @@
       <c r="O144" s="62"/>
       <c r="S144" s="62"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="52"/>
       <c r="B145" s="62"/>
       <c r="C145" s="52"/>
@@ -4961,7 +4906,7 @@
       <c r="O145" s="62"/>
       <c r="S145" s="62"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="52"/>
       <c r="B146" s="62"/>
       <c r="C146" s="52"/>
@@ -4979,7 +4924,7 @@
       <c r="O146" s="62"/>
       <c r="S146" s="62"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="52"/>
       <c r="B147" s="62"/>
       <c r="C147" s="52"/>
@@ -4997,7 +4942,7 @@
       <c r="O147" s="62"/>
       <c r="S147" s="62"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="52"/>
       <c r="B148" s="62"/>
       <c r="C148" s="52"/>
@@ -5015,7 +4960,7 @@
       <c r="O148" s="62"/>
       <c r="S148" s="62"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="52"/>
       <c r="B149" s="62"/>
       <c r="C149" s="52"/>
@@ -5033,7 +4978,7 @@
       <c r="O149" s="62"/>
       <c r="S149" s="62"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="52"/>
       <c r="B150" s="62"/>
       <c r="C150" s="52"/>
@@ -5051,7 +4996,7 @@
       <c r="O150" s="62"/>
       <c r="S150" s="62"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="52"/>
       <c r="B151" s="62"/>
       <c r="C151" s="52"/>
@@ -5069,7 +5014,7 @@
       <c r="O151" s="62"/>
       <c r="S151" s="62"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="52"/>
       <c r="B152" s="62"/>
       <c r="C152" s="52"/>
@@ -5087,7 +5032,7 @@
       <c r="O152" s="62"/>
       <c r="S152" s="62"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="52"/>
       <c r="B153" s="62"/>
       <c r="C153" s="52"/>
@@ -5105,7 +5050,7 @@
       <c r="O153" s="62"/>
       <c r="S153" s="62"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="52"/>
       <c r="B154" s="62"/>
       <c r="C154" s="52"/>
@@ -5123,7 +5068,7 @@
       <c r="O154" s="62"/>
       <c r="S154" s="62"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="52"/>
       <c r="B155" s="62"/>
       <c r="C155" s="52"/>
@@ -5141,7 +5086,7 @@
       <c r="O155" s="62"/>
       <c r="S155" s="62"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="52"/>
       <c r="B156" s="62"/>
       <c r="C156" s="52"/>
@@ -5168,14 +5113,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="6" customWidth="1"/>
@@ -6011,7 +5956,7 @@
     <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="86" t="s">
         <v>28</v>
       </c>
@@ -6028,7 +5973,7 @@
       <c r="L1" s="86"/>
       <c r="M1" s="87"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -6043,7 +5988,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="89"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
@@ -6084,7 +6029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="409.5">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -6125,7 +6070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="409.5">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -6166,7 +6111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="396">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="396" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -6207,7 +6152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="409.5">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -6248,7 +6193,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="409.5">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -6289,7 +6234,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="379.5">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="379.5" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -6330,7 +6275,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" ht="132">
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="132" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -6369,7 +6314,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="5" customFormat="1" ht="198">
+    <row r="11" spans="1:13" s="5" customFormat="1" ht="198" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -6406,7 +6351,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -6439,20 +6384,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6460,7 +6405,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
@@ -6468,7 +6413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -6476,7 +6421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -6484,7 +6429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -6492,7 +6437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -6500,7 +6445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -6508,7 +6453,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>

--- a/VersionRecords/Version 5.0.3.2 20161013/版本Bug和特性计划及评审表v5.0.3.2.xlsx
+++ b/VersionRecords/Version 5.0.3.2 20161013/版本Bug和特性计划及评审表v5.0.3.2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27345" windowHeight="13365"/>
@@ -12,6 +12,9 @@
     <sheet name="(开发)需要修改的配置文件" sheetId="4" r:id="rId3"/>
     <sheet name="（测试）配置文件修改" sheetId="5" r:id="rId4"/>
     <sheet name="（公测）配置文件修改" sheetId="6" r:id="rId5"/>
+    <sheet name="上线准备执行方案" sheetId="7" r:id="rId6"/>
+    <sheet name="房东PC验收点" sheetId="8" r:id="rId7"/>
+    <sheet name="租客PC验收点" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.3.2 新特性|Fix Bug'!$A$1:$T$156</definedName>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="322">
   <si>
     <t>No</t>
   </si>
@@ -475,13 +478,1039 @@
   <si>
     <t>安栋</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">renterpc、partnerpc域名更换上线准备执行方案
+</t>
+  </si>
+  <si>
+    <t>顺序编号</t>
+  </si>
+  <si>
+    <t>阶段</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>注意点</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>是否已完成</t>
+  </si>
+  <si>
+    <t>预计完成时间</t>
+  </si>
+  <si>
+    <t>实际完成时间</t>
+  </si>
+  <si>
+    <t>进展</t>
+  </si>
+  <si>
+    <t>测试阶段</t>
+  </si>
+  <si>
+    <t>锁版</t>
+  </si>
+  <si>
+    <t>测试主管（樊黎）</t>
+  </si>
+  <si>
+    <t>预发布阶段</t>
+  </si>
+  <si>
+    <t>配置文件</t>
+  </si>
+  <si>
+    <t>运维（许领娣）</t>
+  </si>
+  <si>
+    <t>详情见配置说明</t>
+  </si>
+  <si>
+    <t>SQL脚本执行</t>
+  </si>
+  <si>
+    <t>有一个AF的SQL</t>
+  </si>
+  <si>
+    <t>DBA（张思杰）</t>
+  </si>
+  <si>
+    <t>工程发布</t>
+  </si>
+  <si>
+    <t>nginx跳转配置</t>
+  </si>
+  <si>
+    <t>预发布验证</t>
+  </si>
+  <si>
+    <t>见sheet中的验证清单</t>
+  </si>
+  <si>
+    <t>测试全体</t>
+  </si>
+  <si>
+    <t>生产阶段</t>
+  </si>
+  <si>
+    <t>生产验证</t>
+  </si>
+  <si>
+    <t>失败回滚</t>
+  </si>
+  <si>
+    <t>1、退回上一个版本项目包
+2、还原nginx配置
+3、执行回滚SQL</t>
+  </si>
+  <si>
+    <t>版本负责人（杨斌）</t>
+  </si>
+  <si>
+    <t>原链接</t>
+  </si>
+  <si>
+    <t>修改后链接</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>跳转验证</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/</t>
+  </si>
+  <si>
+    <t>http://ppc.api.mogoroom.com/mogoroom-partnerpc/</t>
+  </si>
+  <si>
+    <t>https://p.mogoroom.com/mogoroom-partnerpc/</t>
+  </si>
+  <si>
+    <t>http://p.mogoroom.com/mogoroom-partnerpc/</t>
+  </si>
+  <si>
+    <t>http://p.mgzf.com/mogoroom-partnerpc/</t>
+  </si>
+  <si>
+    <t>http://image.mogoroom.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://image.mgzf.com </t>
+  </si>
+  <si>
+    <t>http://file.mogoroom.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://file.mgzf.com </t>
+  </si>
+  <si>
+    <t>文案改动</t>
+  </si>
+  <si>
+    <t>上海墨果资产管理有限公司</t>
+  </si>
+  <si>
+    <t>上海朔羡网络科技有限公司</t>
+  </si>
+  <si>
+    <t>沪ICP备14004976号</t>
+  </si>
+  <si>
+    <t>沪ICP备16035093号</t>
+  </si>
+  <si>
+    <t>底部链接跳转-关于我们-加入蘑菇-友情链接</t>
+  </si>
+  <si>
+    <t>链接测试</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/fangtai/fs.html</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/fangtai/fs.html</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/fangtai/jz.html</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/fangtai/fs.jz.html</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/flats/turnInitializeData</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/flats/turnInitializeData</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/flats/addNewBuilding</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/flats/addNewBuilding</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/host/turnToHostFlats</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/host/turnToHostFlats</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/finance/ownerBillList</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/finance/ownerBillList</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/saleOrder/listReservationOrder</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/saleOrder/listReservationOrder</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/saleOrder/listBookOrder</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/saleOrder/listBookOrder</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/order/list</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/order/list</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/flats/querySignedOrderConvertInfo</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/flats/querySignedOrderConvertInfo</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/saleOrder/listCheckoutRequest</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/saleOrder/listCheckoutRequest</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/bill/pushedCustomBillList</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/bill/pushedCustomBillList</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/finance/refundApprovalList</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/finance/refundApprovalList</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/support/listRepair</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/support/listRepair</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/support/listComplain</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/support/listComplain</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/finance/rentLoanBillList</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/finance/rentLoanBillList</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/credit/zmxy</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/credit/zmxy</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/billreport/billList</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/billreport/billList</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/billreport/billverification</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/billreport/billverification</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/billreport/billcount</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/billreport/billcount</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/billreport/billbaddebts</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/billreport/billbaddebts</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/flats/renterInfoList</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/flats/renterInfoList</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/orgExtend/orgExtendList</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/orgExtend/orgExtendList</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/orgExtend/orgExtendById</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/orgExtend/orgExtendById</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/orgExtend/orgFlatsList</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/orgExtend/orgFlatsList</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/category/categorySettingList</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/category/categorySettingList</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/subAccount/subAccountList</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/subAccount/subAccountList</t>
+  </si>
+  <si>
+    <t>https://ppc.api.mogoroom.com/mogoroom-partnerpc/role/roleSetting</t>
+  </si>
+  <si>
+    <t>https://p.mgzf.com/mogoroom-partnerpc/role/roleSetting</t>
+  </si>
+  <si>
+    <t>功能点抽样验证</t>
+  </si>
+  <si>
+    <t>上传头像</t>
+  </si>
+  <si>
+    <t>修改子账号密码</t>
+  </si>
+  <si>
+    <t>售后投诉报修修改</t>
+  </si>
+  <si>
+    <t>修改房东登录密码</t>
+  </si>
+  <si>
+    <t>添加分散式房间</t>
+  </si>
+  <si>
+    <t>分配房源至某分店</t>
+  </si>
+  <si>
+    <t>绑定伙伴公众号</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>官网/Wap</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <r>
+      <t>输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>www</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.mgzf.com 访问</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>www</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.mogoroom.com访问</t>
+    </r>
+  </si>
+  <si>
+    <t>输入 bj.mogoroom.com 访问</t>
+  </si>
+  <si>
+    <t>输入 bj.mgzf.com 访问</t>
+  </si>
+  <si>
+    <r>
+      <t>切换城市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证跳转</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立即找房</t>
+    </r>
+  </si>
+  <si>
+    <t>点击 某区域找房</t>
+  </si>
+  <si>
+    <t>点击 某地铁找房</t>
+  </si>
+  <si>
+    <t>点击 合租 或 整租找房</t>
+  </si>
+  <si>
+    <r>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优选品牌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>搜索框输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>品牌名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证跳转</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>搜索框输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小区名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证跳转</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蘑菇社区</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 下载</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伙伴登录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>租客登录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮播图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>品牌推荐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>某品牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入品牌主页</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“查看更多品牌”</t>
+    </r>
+  </si>
+  <si>
+    <t>点击 广告位</t>
+  </si>
+  <si>
+    <t>点击 首页推荐房源</t>
+  </si>
+  <si>
+    <t>点击 查看更多房源</t>
+  </si>
+  <si>
+    <t>点击 社区文章推荐</t>
+  </si>
+  <si>
+    <t>点击 了解详情</t>
+  </si>
+  <si>
+    <t>点击 关于我们 下的所有链接</t>
+  </si>
+  <si>
+    <t>点击 帮助与支付 下的所有链接</t>
+  </si>
+  <si>
+    <t>点击 合作 下的所有链接</t>
+  </si>
+  <si>
+    <t>点击 友情链接下的某些链接</t>
+  </si>
+  <si>
+    <t>立即找房页</t>
+  </si>
+  <si>
+    <t>切换城市   验证跳转</t>
+  </si>
+  <si>
+    <t>点击某方式 合租或整租</t>
+  </si>
+  <si>
+    <t>点击 某品牌找房</t>
+  </si>
+  <si>
+    <t>点击 价格找房</t>
+  </si>
+  <si>
+    <t>点击 更多找房</t>
+  </si>
+  <si>
+    <t>点击 价格排序找房</t>
+  </si>
+  <si>
+    <t>列表页 点击某优选品牌</t>
+  </si>
+  <si>
+    <t>列表房源数据 点击 优选品牌 标签</t>
+  </si>
+  <si>
+    <t>列表 点击 某小区进入 房间详情</t>
+  </si>
+  <si>
+    <t>右侧地图 点击 某小区进入 房间详情</t>
+  </si>
+  <si>
+    <t>点击 底部的 关于我们 工作机会 等</t>
+  </si>
+  <si>
+    <t>http://bj.mgzf.com/room/18682.shtml 修改成 http://bj.mogoroom.com/room/18682.shtml  访问</t>
+  </si>
+  <si>
+    <t>筛选后 点击 全部清除</t>
+  </si>
+  <si>
+    <t>输入 小区名 等搜索</t>
+  </si>
+  <si>
+    <t>列表、全屏地图切换</t>
+  </si>
+  <si>
+    <t>优选品牌</t>
+  </si>
+  <si>
+    <t>http://www.mgzf.com/brand/initBrandArea 修改成 http://www.mogoroom.com/brand/initBrandArea 访问</t>
+  </si>
+  <si>
+    <t>点击某品牌 进入品牌主页</t>
+  </si>
+  <si>
+    <r>
+      <t>将某品牌 路径修改成  mogoroom 访问 如 http://baozupo.mgzf.com/sz 修改成 http://baozupo.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mogoroom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.com/sz</t>
+    </r>
+  </si>
+  <si>
+    <t>点击 房源库</t>
+  </si>
+  <si>
+    <t>点击 创始人访谈</t>
+  </si>
+  <si>
+    <t>点击 官方评测</t>
+  </si>
+  <si>
+    <t>品牌房源库中 找房操作</t>
+  </si>
+  <si>
+    <t>品牌主页 点击喜欢</t>
+  </si>
+  <si>
+    <t>品牌主页 点击评价</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>忘记密码</t>
+  </si>
+  <si>
+    <t>我的消息</t>
+  </si>
+  <si>
+    <t>提交或编辑个人资料</t>
+  </si>
+  <si>
+    <t>修改登录密码</t>
+  </si>
+  <si>
+    <t>修改手机号码</t>
+  </si>
+  <si>
+    <t>我的订单</t>
+  </si>
+  <si>
+    <t>退出登录 切换城市退出登录</t>
+  </si>
+  <si>
+    <t>提交数据相关</t>
+  </si>
+  <si>
+    <t>预约</t>
+  </si>
+  <si>
+    <t>提交建议&amp;投诉</t>
+  </si>
+  <si>
+    <t>提交 友情链接申请</t>
+  </si>
+  <si>
+    <t>提交 申请入驻</t>
+  </si>
+  <si>
+    <t>租客APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   分享链接验证</t>
+  </si>
+  <si>
+    <t>房源分享链接 验证</t>
+  </si>
+  <si>
+    <t>优选品牌分享链接 验证</t>
+  </si>
+  <si>
+    <t>评测分享链接验证</t>
+  </si>
+  <si>
+    <t>优惠专题</t>
+  </si>
+  <si>
+    <t>点击查看 优惠专题 数据</t>
+  </si>
+  <si>
+    <t>品牌专区</t>
+  </si>
+  <si>
+    <t>点击查看 品牌专区 进入品牌专区</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CMS </t>
+  </si>
+  <si>
+    <t>添加社区文章功能 验证www.mogoroom.com 修改成www.mgzf.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑 社区文章 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -612,8 +1641,67 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,8 +1732,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -777,8 +1883,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,8 +1946,36 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1099,21 +2270,167 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="21" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="21" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="16" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="22" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="15" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="22" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="22" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="26">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 10" xfId="16"/>
+    <cellStyle name="常规 11" xfId="22"/>
     <cellStyle name="常规 2" xfId="9"/>
     <cellStyle name="常规 3" xfId="8"/>
     <cellStyle name="常规 3 12" xfId="4"/>
+    <cellStyle name="常规 3 12 2" xfId="13"/>
+    <cellStyle name="常规 3 12 3" xfId="19"/>
+    <cellStyle name="常规 3 12 4" xfId="24"/>
+    <cellStyle name="常规 3 2" xfId="14"/>
+    <cellStyle name="常规 3 3" xfId="21"/>
+    <cellStyle name="常规 3 4" xfId="25"/>
     <cellStyle name="常规 4" xfId="7"/>
     <cellStyle name="常规 5" xfId="5"/>
     <cellStyle name="常规 6" xfId="3"/>
+    <cellStyle name="常规 6 2" xfId="11"/>
+    <cellStyle name="常规 6 3" xfId="17"/>
+    <cellStyle name="常规 6 4" xfId="20"/>
     <cellStyle name="常规 7" xfId="6"/>
+    <cellStyle name="常规 8" xfId="10"/>
     <cellStyle name="常规 9" xfId="2"/>
+    <cellStyle name="常规 9 2" xfId="12"/>
+    <cellStyle name="常规 9 3" xfId="18"/>
+    <cellStyle name="常规 9 4" xfId="23"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8"/>
     <cellStyle name="甘特图" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+    <tableStyle name="MySqlDefault" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1182,14 +2499,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1528,7 +2837,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9578,4 +10887,1615 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="32.125" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.25">
+      <c r="A1" s="112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.25">
+      <c r="A2" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.25">
+      <c r="A3" s="103">
+        <v>1</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="109"/>
+      <c r="E3" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="105"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="110"/>
+    </row>
+    <row r="4" spans="1:10" ht="51.75">
+      <c r="A4" s="98">
+        <v>2</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="109"/>
+      <c r="E4" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="105"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.25">
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="105"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="110"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25">
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="109"/>
+      <c r="E6" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="105"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="110"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.25">
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="109" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="109"/>
+      <c r="E7" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="105"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="110"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.25">
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="105"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="110"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.25">
+      <c r="A9" s="98">
+        <v>3</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="109"/>
+      <c r="E9" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="105"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="110"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.25">
+      <c r="A10" s="100"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="105"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="110"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.25">
+      <c r="A11" s="100"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="109"/>
+      <c r="E11" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="105"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="110"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.25">
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="109" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="109"/>
+      <c r="E12" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="105"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="110"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.25">
+      <c r="A13" s="100"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="105"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="110"/>
+    </row>
+    <row r="14" spans="1:10" ht="172.5">
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="105"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="110"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="3" max="5" width="80.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="116">
+        <v>1</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="117" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="116"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="116">
+        <v>2</v>
+      </c>
+      <c r="B3" s="114"/>
+      <c r="C3" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="116"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="116">
+        <v>3</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="116"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="116">
+        <v>4</v>
+      </c>
+      <c r="B5" s="114"/>
+      <c r="C5" s="117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="116"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="116">
+        <v>5</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="117" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="116"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="116">
+        <v>6</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="116"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="116">
+        <v>7</v>
+      </c>
+      <c r="B8" s="114"/>
+      <c r="C8" s="117" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="116"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="116">
+        <v>8</v>
+      </c>
+      <c r="B9" s="114"/>
+      <c r="C9" s="117" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="117" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="116"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="116">
+        <v>9</v>
+      </c>
+      <c r="B10" s="114" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="116"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="116">
+        <v>10</v>
+      </c>
+      <c r="B11" s="114"/>
+      <c r="C11" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="116"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="116">
+        <v>11</v>
+      </c>
+      <c r="B12" s="114"/>
+      <c r="C12" s="116" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="116">
+        <v>12</v>
+      </c>
+      <c r="B13" s="114" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="116"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="116">
+        <v>13</v>
+      </c>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="117" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="116"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="116">
+        <v>14</v>
+      </c>
+      <c r="B15" s="114"/>
+      <c r="C15" s="117" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="117" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="116"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="116">
+        <v>15</v>
+      </c>
+      <c r="B16" s="114"/>
+      <c r="C16" s="117" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="116"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="116">
+        <v>16</v>
+      </c>
+      <c r="B17" s="114"/>
+      <c r="C17" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="116"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="116">
+        <v>17</v>
+      </c>
+      <c r="B18" s="114"/>
+      <c r="C18" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="117" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="116"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="116">
+        <v>18</v>
+      </c>
+      <c r="B19" s="114"/>
+      <c r="C19" s="117" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="117" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="116"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="116">
+        <v>19</v>
+      </c>
+      <c r="B20" s="114"/>
+      <c r="C20" s="117" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="116"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="116">
+        <v>20</v>
+      </c>
+      <c r="B21" s="114"/>
+      <c r="C21" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="117" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="116"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="116">
+        <v>21</v>
+      </c>
+      <c r="B22" s="114"/>
+      <c r="C22" s="117" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="116"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="116">
+        <v>22</v>
+      </c>
+      <c r="B23" s="114"/>
+      <c r="C23" s="117" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="117" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="116"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="116">
+        <v>23</v>
+      </c>
+      <c r="B24" s="114"/>
+      <c r="C24" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="117" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="116"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="116">
+        <v>24</v>
+      </c>
+      <c r="B25" s="114"/>
+      <c r="C25" s="117" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="117" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="116"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="116">
+        <v>25</v>
+      </c>
+      <c r="B26" s="114"/>
+      <c r="C26" s="117" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="117" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="116"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="116">
+        <v>26</v>
+      </c>
+      <c r="B27" s="114"/>
+      <c r="C27" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="117" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="116"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="116">
+        <v>27</v>
+      </c>
+      <c r="B28" s="114"/>
+      <c r="C28" s="117" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="116"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="116">
+        <v>28</v>
+      </c>
+      <c r="B29" s="114"/>
+      <c r="C29" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="117" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="116"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="116">
+        <v>29</v>
+      </c>
+      <c r="B30" s="114"/>
+      <c r="C30" s="117" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="117" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" s="116"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="116">
+        <v>30</v>
+      </c>
+      <c r="B31" s="114"/>
+      <c r="C31" s="117" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="117" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="116"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="116">
+        <v>31</v>
+      </c>
+      <c r="B32" s="114"/>
+      <c r="C32" s="117" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="116" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="116"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="116">
+        <v>32</v>
+      </c>
+      <c r="B33" s="114"/>
+      <c r="C33" s="117" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="117" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="116"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="116">
+        <v>33</v>
+      </c>
+      <c r="B34" s="114"/>
+      <c r="C34" s="117" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="117" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" s="116"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="116">
+        <v>34</v>
+      </c>
+      <c r="B35" s="114"/>
+      <c r="C35" s="117" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="117" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35" s="116"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="116">
+        <v>35</v>
+      </c>
+      <c r="B36" s="114"/>
+      <c r="C36" s="117" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" s="117" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="116"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="116">
+        <v>36</v>
+      </c>
+      <c r="B37" s="114"/>
+      <c r="C37" s="117" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="117" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="116"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="116">
+        <v>37</v>
+      </c>
+      <c r="B38" s="114"/>
+      <c r="C38" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="D38" s="117" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" s="116"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="116">
+        <v>38</v>
+      </c>
+      <c r="B39" s="114"/>
+      <c r="C39" s="117" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="116"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="116">
+        <v>39</v>
+      </c>
+      <c r="B40" s="114"/>
+      <c r="C40" s="117" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="117" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40" s="116"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="116">
+        <v>40</v>
+      </c>
+      <c r="B41" s="115" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="116" t="s">
+        <v>229</v>
+      </c>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="116">
+        <v>41</v>
+      </c>
+      <c r="B42" s="115"/>
+      <c r="C42" s="116" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="116">
+        <v>42</v>
+      </c>
+      <c r="B43" s="115"/>
+      <c r="C43" s="116" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="116">
+        <v>43</v>
+      </c>
+      <c r="B44" s="115"/>
+      <c r="C44" s="116" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="116">
+        <v>44</v>
+      </c>
+      <c r="B45" s="115"/>
+      <c r="C45" s="116" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="116">
+        <v>45</v>
+      </c>
+      <c r="B46" s="115"/>
+      <c r="C46" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="116">
+        <v>46</v>
+      </c>
+      <c r="B47" s="115"/>
+      <c r="C47" s="116" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B40"/>
+    <mergeCell ref="B41:B47"/>
+  </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId7"/>
+    <hyperlink ref="D3" r:id="rId8"/>
+    <hyperlink ref="D4" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="D7" r:id="rId11"/>
+    <hyperlink ref="C8" r:id="rId12"/>
+    <hyperlink ref="C9" r:id="rId13"/>
+    <hyperlink ref="D9" r:id="rId14"/>
+    <hyperlink ref="D8" r:id="rId15"/>
+    <hyperlink ref="D13" r:id="rId16"/>
+    <hyperlink ref="C13" r:id="rId17"/>
+    <hyperlink ref="C14" r:id="rId18"/>
+    <hyperlink ref="D14" r:id="rId19"/>
+    <hyperlink ref="D15" r:id="rId20"/>
+    <hyperlink ref="D16" r:id="rId21"/>
+    <hyperlink ref="D17" r:id="rId22"/>
+    <hyperlink ref="D18" r:id="rId23"/>
+    <hyperlink ref="D19" r:id="rId24"/>
+    <hyperlink ref="D20" r:id="rId25"/>
+    <hyperlink ref="D21" r:id="rId26"/>
+    <hyperlink ref="D22" r:id="rId27"/>
+    <hyperlink ref="D23" r:id="rId28"/>
+    <hyperlink ref="D24" r:id="rId29"/>
+    <hyperlink ref="D25" r:id="rId30"/>
+    <hyperlink ref="D26" r:id="rId31"/>
+    <hyperlink ref="D27" r:id="rId32"/>
+    <hyperlink ref="D28" r:id="rId33"/>
+    <hyperlink ref="D29" r:id="rId34"/>
+    <hyperlink ref="D30" r:id="rId35"/>
+    <hyperlink ref="D31" r:id="rId36"/>
+    <hyperlink ref="D33" r:id="rId37"/>
+    <hyperlink ref="D34" r:id="rId38"/>
+    <hyperlink ref="D35" r:id="rId39"/>
+    <hyperlink ref="D36" r:id="rId40"/>
+    <hyperlink ref="D37" r:id="rId41"/>
+    <hyperlink ref="D38" r:id="rId42"/>
+    <hyperlink ref="D39" r:id="rId43"/>
+    <hyperlink ref="D40" r:id="rId44"/>
+    <hyperlink ref="C15" r:id="rId45"/>
+    <hyperlink ref="C16" r:id="rId46"/>
+    <hyperlink ref="C17" r:id="rId47"/>
+    <hyperlink ref="C18" r:id="rId48"/>
+    <hyperlink ref="C19" r:id="rId49"/>
+    <hyperlink ref="C20" r:id="rId50"/>
+    <hyperlink ref="C21" r:id="rId51"/>
+    <hyperlink ref="C22" r:id="rId52"/>
+    <hyperlink ref="C23" r:id="rId53"/>
+    <hyperlink ref="C24" r:id="rId54"/>
+    <hyperlink ref="C25" r:id="rId55"/>
+    <hyperlink ref="C26" r:id="rId56"/>
+    <hyperlink ref="C27" r:id="rId57"/>
+    <hyperlink ref="C28" r:id="rId58"/>
+    <hyperlink ref="C29" r:id="rId59"/>
+    <hyperlink ref="C30" r:id="rId60"/>
+    <hyperlink ref="C31" r:id="rId61"/>
+    <hyperlink ref="C33" r:id="rId62"/>
+    <hyperlink ref="C34" r:id="rId63"/>
+    <hyperlink ref="C35" r:id="rId64"/>
+    <hyperlink ref="C36" r:id="rId65"/>
+    <hyperlink ref="C37" r:id="rId66"/>
+    <hyperlink ref="C38" r:id="rId67"/>
+    <hyperlink ref="C39" r:id="rId68"/>
+    <hyperlink ref="C40" r:id="rId69"/>
+    <hyperlink ref="C32" r:id="rId70"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="86.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A1" s="123" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="124"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A2" s="119" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="119" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="123" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="123" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A4" s="131"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="123" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="123" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A6" s="131"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="123" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A7" s="131"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A8" s="131"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="123" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A9" s="131"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="123" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A10" s="131"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="123" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A11" s="131"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="123" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A12" s="131"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="123" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A13" s="131"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="123" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A14" s="131"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="123" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A15" s="131"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="123" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="123" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A17" s="131"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="123" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A18" s="131"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="123" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A19" s="131"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="123" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A20" s="131"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="123" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A21" s="131"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="125" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A22" s="131"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="125" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A23" s="131"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="125" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A24" s="131"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="125" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A25" s="131"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="125" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A26" s="131"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="125" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A27" s="131"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="125" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A28" s="131"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="125" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A29" s="131"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="125" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A30" s="131"/>
+      <c r="B30" s="118" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="126" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A31" s="131"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="125" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A32" s="131"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="125" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A33" s="131"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="125" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A34" s="131"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="125" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A35" s="131"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="125" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A36" s="131"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="125" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A37" s="131"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="125" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A38" s="131"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="125" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A39" s="131"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="125" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A40" s="131"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="125" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A41" s="131"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="125" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A42" s="131"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="125" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A43" s="131"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="127" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A44" s="131"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="125" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A45" s="131"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="125" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A46" s="131"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="125" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A47" s="131"/>
+      <c r="B47" s="118" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="126" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A48" s="131"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="126" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A49" s="131"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="126" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A50" s="131"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="126" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A51" s="131"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="126" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A52" s="131"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="126" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A53" s="131"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="126" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A54" s="131"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="126" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A55" s="131"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="126" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A56" s="131"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="126" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A57" s="131"/>
+      <c r="B57" s="118" t="s">
+        <v>294</v>
+      </c>
+      <c r="C57" s="126" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A58" s="131"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="125" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A59" s="131"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="125" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A60" s="131"/>
+      <c r="B60" s="121"/>
+      <c r="C60" s="125" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A61" s="131"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="125" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A62" s="131"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="125" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A63" s="131"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="125" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A64" s="131"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="125" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A65" s="131"/>
+      <c r="B65" s="121"/>
+      <c r="C65" s="128" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A66" s="131"/>
+      <c r="B66" s="133" t="s">
+        <v>304</v>
+      </c>
+      <c r="C66" s="125" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A67" s="131"/>
+      <c r="B67" s="133"/>
+      <c r="C67" s="125" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A68" s="131"/>
+      <c r="B68" s="133"/>
+      <c r="C68" s="125" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A69" s="132"/>
+      <c r="B69" s="133"/>
+      <c r="C69" s="125" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A70" s="118" t="s">
+        <v>309</v>
+      </c>
+      <c r="B70" s="118" t="s">
+        <v>310</v>
+      </c>
+      <c r="C70" s="125" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A71" s="121"/>
+      <c r="B71" s="121"/>
+      <c r="C71" s="125" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A72" s="121"/>
+      <c r="B72" s="120"/>
+      <c r="C72" s="125" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A73" s="121"/>
+      <c r="B73" s="122" t="s">
+        <v>314</v>
+      </c>
+      <c r="C73" s="125" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A74" s="121"/>
+      <c r="B74" s="129" t="s">
+        <v>316</v>
+      </c>
+      <c r="C74" s="130" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A75" s="118" t="s">
+        <v>318</v>
+      </c>
+      <c r="B75" s="118" t="s">
+        <v>319</v>
+      </c>
+      <c r="C75" s="125" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A76" s="121"/>
+      <c r="B76" s="121"/>
+      <c r="C76" s="125" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A77" s="121"/>
+      <c r="B77" s="121"/>
+      <c r="C77" s="125"/>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A78" s="121"/>
+      <c r="B78" s="121"/>
+      <c r="C78" s="125"/>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A79" s="121"/>
+      <c r="B79" s="121"/>
+      <c r="C79" s="125"/>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A80" s="120"/>
+      <c r="B80" s="120"/>
+      <c r="C80" s="125"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="A2:A69"/>
+    <mergeCell ref="B2:B29"/>
+    <mergeCell ref="B30:B46"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="B66:B69"/>
+  </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C43" r:id="rId1" display="http://bj.mgzf.com/room/18682.shtml 修改成 "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>